--- a/data/mz.xlsx
+++ b/data/mz.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="174" documentId="8_{61E281A5-EC0E-4EEE-A8DC-20F5C06C0A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F95F80A-95A0-450F-BB5C-26D069A8E41A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{512E193E-E95C-440D-9226-8F9915A417D1}"/>
+    <workbookView xWindow="-26880" yWindow="1920" windowWidth="21600" windowHeight="11325" xr2:uid="{512E193E-E95C-440D-9226-8F9915A417D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
